--- a/data/trans_dic/P41C_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.05010434067017477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03442849273060537</v>
+        <v>0.03442849273060538</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02032775744791464</v>
+        <v>0.02393669619849986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01598023358144521</v>
+        <v>0.01656665630090248</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09158740448841075</v>
+        <v>0.07353878995014604</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09588428779129644</v>
+        <v>0.1091558483994028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06686589852221198</v>
+        <v>0.06697796576070769</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.0297710622740991</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04923492017612797</v>
+        <v>0.04923492017612796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04006999371296332</v>
+        <v>0.04006999371296331</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01130541979947386</v>
+        <v>0.01114713407812407</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02725650384046343</v>
+        <v>0.02756263936393481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02377744079181275</v>
+        <v>0.0244419092449897</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06837866923650554</v>
+        <v>0.06111384992120893</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07920440331576366</v>
+        <v>0.07893672891898008</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06078977108263897</v>
+        <v>0.06054759804793368</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.03320446931279271</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04864362571729372</v>
+        <v>0.04864362571729371</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03002619348942088</v>
+        <v>0.03533726977892934</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01649533213406369</v>
+        <v>0.01630914514781994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02919617753070945</v>
+        <v>0.02964947241994718</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1313310819340708</v>
+        <v>0.1394980932803762</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.057232911710764</v>
+        <v>0.05682512656140352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08129156420712512</v>
+        <v>0.08119571797524359</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.03947966504084331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0385044558240849</v>
+        <v>0.03850445582408491</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01604499321270057</v>
+        <v>0.01625079227341938</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02082625312274271</v>
+        <v>0.01861241850790003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02379753356262975</v>
+        <v>0.02326592059089846</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07442267566974435</v>
+        <v>0.07303336865093657</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07113530407435434</v>
+        <v>0.06943271107742831</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06064412627192124</v>
+        <v>0.05805353620417328</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04117767473549659</v>
+        <v>0.04117767473549658</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.04161871755276268</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02696879927109546</v>
+        <v>0.02668414650326129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03125125842568533</v>
+        <v>0.03092974073045902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0313221658240897</v>
+        <v>0.03231011506596108</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06372976038154914</v>
+        <v>0.06285638227586034</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05645729345586868</v>
+        <v>0.05603696592890327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05375217480832666</v>
+        <v>0.0548209005216327</v>
       </c>
     </row>
     <row r="19">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2048</v>
+        <v>2411</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2929</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7559</v>
+        <v>6069</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9659</v>
+        <v>10996</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12254</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2098</v>
+        <v>2069</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5684</v>
+        <v>5748</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9372</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12690</v>
+        <v>11342</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16518</v>
+        <v>16463</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23960</v>
+        <v>23864</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5871</v>
+        <v>6910</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3869</v>
+        <v>3826</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12558</v>
+        <v>12753</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25681</v>
+        <v>27278</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13425</v>
+        <v>13329</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34964</v>
+        <v>34923</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3687</v>
+        <v>3735</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4571</v>
+        <v>4085</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10692</v>
+        <v>10453</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17103</v>
+        <v>16784</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15613</v>
+        <v>15239</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27247</v>
+        <v>26083</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18702</v>
+        <v>18505</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23855</v>
+        <v>23610</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45631</v>
+        <v>47070</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44195</v>
+        <v>43589</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43096</v>
+        <v>42775</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>78307</v>
+        <v>79864</v>
       </c>
     </row>
     <row r="24">
